--- a/src/main/resources/excels/staffRoleMatrix.xlsx
+++ b/src/main/resources/excels/staffRoleMatrix.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\gosell-automation1\src\main\resources\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\auto-gosell\src\main\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66501DCF-3E4D-44F4-BEEA-D2E0926ABE72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Staff Role" sheetId="1" r:id="rId1"/>
+    <sheet name="Domain" sheetId="2" r:id="rId1"/>
+    <sheet name="Staff Role" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="209">
   <si>
     <t>Products</t>
   </si>
@@ -241,12 +233,432 @@
   </si>
   <si>
     <t>GoChat</t>
+  </si>
+  <si>
+    <t>Sản Phẩm</t>
+  </si>
+  <si>
+    <t>Tiếp Thị</t>
+  </si>
+  <si>
+    <t>Đơn Hàng</t>
+  </si>
+  <si>
+    <t>Kênh Bán Hàng</t>
+  </si>
+  <si>
+    <t>Phân Tích</t>
+  </si>
+  <si>
+    <t>Tùy Chỉnh</t>
+  </si>
+  <si>
+    <t>Giảm giá</t>
+  </si>
+  <si>
+    <t>Khách hàng</t>
+  </si>
+  <si>
+    <t>Dịch Vụ</t>
+  </si>
+  <si>
+    <t>Tổng Đài</t>
+  </si>
+  <si>
+    <t>Đặt chỗ</t>
+  </si>
+  <si>
+    <t>Quản lý nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Đơn nhập hàng</t>
+  </si>
+  <si>
+    <t>Conservation</t>
+  </si>
+  <si>
+    <t>GoSocial Zalo</t>
+  </si>
+  <si>
+    <t>Reviews</t>
+  </si>
+  <si>
+    <t>Purchase Order</t>
+  </si>
+  <si>
+    <t>Return Orders</t>
+  </si>
+  <si>
+    <t>Create Quotation</t>
+  </si>
+  <si>
+    <t>Order 1 | POS - Instore purchase</t>
+  </si>
+  <si>
+    <t>Discounts</t>
+  </si>
+  <si>
+    <t>Flash sale management</t>
+  </si>
+  <si>
+    <t>Customer segment</t>
+  </si>
+  <si>
+    <t>Orders Analytics</t>
+  </si>
+  <si>
+    <t>Reservations Analytics</t>
+  </si>
+  <si>
+    <t>Email Campaigns</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Loyalty Program</t>
+  </si>
+  <si>
+    <t>Google Analytics</t>
+  </si>
+  <si>
+    <t>Google Shopping</t>
+  </si>
+  <si>
+    <t>Google Tag Manager</t>
+  </si>
+  <si>
+    <t>Facebook Pixel</t>
+  </si>
+  <si>
+    <t>Loyalty point program</t>
+  </si>
+  <si>
+    <t>Theme management</t>
+  </si>
+  <si>
+    <t>Buy Link</t>
+  </si>
+  <si>
+    <t>Blog management</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Shopee product management</t>
+  </si>
+  <si>
+    <t>Trang chủ</t>
+  </si>
+  <si>
+    <t>Hội thoại</t>
+  </si>
+  <si>
+    <t>Cấu hình</t>
+  </si>
+  <si>
+    <t>Sản phẩm</t>
+  </si>
+  <si>
+    <t>Kho Sản Phẩm</t>
+  </si>
+  <si>
+    <t>Vận chuyển</t>
+  </si>
+  <si>
+    <t>Bộ sưu tập</t>
+  </si>
+  <si>
+    <t>Đánh giá</t>
+  </si>
+  <si>
+    <t>Nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Dịch vụ</t>
+  </si>
+  <si>
+    <t>Đơn hàng</t>
+  </si>
+  <si>
+    <t>Đơn trả hàng</t>
+  </si>
+  <si>
+    <t>Tạo báo giá</t>
+  </si>
+  <si>
+    <t>Đơn hàng 1 | POS - Bán hàng tại quầy</t>
+  </si>
+  <si>
+    <t>Danh Sách Mã Giảm Giá</t>
+  </si>
+  <si>
+    <t>Danh sách khách hàng</t>
+  </si>
+  <si>
+    <t>Phân nhóm khách hàng</t>
+  </si>
+  <si>
+    <t>Sổ quỹ</t>
+  </si>
+  <si>
+    <t>Phân tích đơn hàng</t>
+  </si>
+  <si>
+    <t>Phân tích dịch vụ</t>
+  </si>
+  <si>
+    <t>Landing Page</t>
+  </si>
+  <si>
+    <t>Link Mua Hàng</t>
+  </si>
+  <si>
+    <t>Quản Lý Chiến Dịch Email</t>
+  </si>
+  <si>
+    <t>Thông báo</t>
+  </si>
+  <si>
+    <t>Khách Hàng Thân Thiết</t>
+  </si>
+  <si>
+    <t>Điểm thành viên</t>
+  </si>
+  <si>
+    <t>Cộng tác viên</t>
+  </si>
+  <si>
+    <t>Quản lý giao diện</t>
+  </si>
+  <si>
+    <t>Danh sách bài viết blog</t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
+    <t>Danh Mục</t>
+  </si>
+  <si>
+    <t>Tên miền</t>
+  </si>
+  <si>
+    <t>Nâng cao</t>
+  </si>
+  <si>
+    <t>Quản lý sản phẩm Shopee</t>
+  </si>
+  <si>
+    <t>/home</t>
+  </si>
+  <si>
+    <t>/gosocial/facebook/conversations</t>
+  </si>
+  <si>
+    <t>/gosocial/facebook/configuration</t>
+  </si>
+  <si>
+    <t>/gosocial/facebook/automation</t>
+  </si>
+  <si>
+    <t>/gosocial/facebook/broadcast</t>
+  </si>
+  <si>
+    <t>/gosocial/zalo/intro</t>
+  </si>
+  <si>
+    <t>/product/list</t>
+  </si>
+  <si>
+    <t>/inventory/list</t>
+  </si>
+  <si>
+    <t>/product/transfer/list</t>
+  </si>
+  <si>
+    <t>/collection/list</t>
+  </si>
+  <si>
+    <t>/review_product/list</t>
+  </si>
+  <si>
+    <t>/supplier/list</t>
+  </si>
+  <si>
+    <t>/product/purchase-order/list</t>
+  </si>
+  <si>
+    <t>/service/list</t>
+  </si>
+  <si>
+    <t>/collection_service/list</t>
+  </si>
+  <si>
+    <t>/order/list</t>
+  </si>
+  <si>
+    <t>/order/return-order/list</t>
+  </si>
+  <si>
+    <t>/order/instore-quotation</t>
+  </si>
+  <si>
+    <t>/order/instore-purchase</t>
+  </si>
+  <si>
+    <t>/reservation/list</t>
+  </si>
+  <si>
+    <t>/discounts/list</t>
+  </si>
+  <si>
+    <t>/flash-sale/list</t>
+  </si>
+  <si>
+    <t>/customers/all-customers/list</t>
+  </si>
+  <si>
+    <t>/customers/segments/list</t>
+  </si>
+  <si>
+    <t>/call-center/intro</t>
+  </si>
+  <si>
+    <t>/cashbook/management</t>
+  </si>
+  <si>
+    <t>/analytics/order</t>
+  </si>
+  <si>
+    <t>/analytics/reservation</t>
+  </si>
+  <si>
+    <t>/marketing/landing-page/list</t>
+  </si>
+  <si>
+    <t>/marketing/buy-link/list</t>
+  </si>
+  <si>
+    <t>/marketing/email/list</t>
+  </si>
+  <si>
+    <t>/marketing/notification</t>
+  </si>
+  <si>
+    <t>/marketing/loyalty/list</t>
+  </si>
+  <si>
+    <t>/marketing/google-analytics</t>
+  </si>
+  <si>
+    <t>/marketing/google-shopping</t>
+  </si>
+  <si>
+    <t>/marketing/google-tag-manager</t>
+  </si>
+  <si>
+    <t>/marketing/facebook-pixel</t>
+  </si>
+  <si>
+    <t>/marketing/loyalty-point/setting</t>
+  </si>
+  <si>
+    <t>/affiliate</t>
+  </si>
+  <si>
+    <t>/theme/management</t>
+  </si>
+  <si>
+    <t>/channel/storefront/blog/article/list</t>
+  </si>
+  <si>
+    <t>/channel/storefront/custom-page</t>
+  </si>
+  <si>
+    <t>/channel/storefront/menu</t>
+  </si>
+  <si>
+    <t>/channel/storefront/domain</t>
+  </si>
+  <si>
+    <t>/channel/storefront/preference</t>
+  </si>
+  <si>
+    <t>/channel/shopee/account/information</t>
+  </si>
+  <si>
+    <t>/channel/shopee/product/list</t>
+  </si>
+  <si>
+    <t>/channel/shopee/link-products</t>
+  </si>
+  <si>
+    <t>/channel/shopee/account/management</t>
+  </si>
+  <si>
+    <t>/channel/shopee/settings</t>
+  </si>
+  <si>
+    <t>/channel/lazada/account</t>
+  </si>
+  <si>
+    <t>/channel/gomua/account</t>
+  </si>
+  <si>
+    <t>/setting</t>
+  </si>
+  <si>
+    <t>PagePath</t>
+  </si>
+  <si>
+    <t>PageTitleEN</t>
+  </si>
+  <si>
+    <t>PermissionsEN</t>
+  </si>
+  <si>
+    <t>PageTitleVI/PermissionsVI</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>stg</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>https://gosell.mediastep.ca</t>
+  </si>
+  <si>
+    <t>https://admin.unisell.vn</t>
+  </si>
+  <si>
+    <t>https://admin.gosell.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gosell QA - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin Staging - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin - </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -256,7 +668,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="MS PGothic"/>
       <family val="2"/>
@@ -347,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -367,6 +779,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -702,420 +1118,569 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CEF8F2-9EF8-4B8D-ABD8-966222E51E49}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{E29C95EC-9F86-4F45-8DD1-C2F668377B41}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{DD3A0A33-6002-48ED-8455-03531793220D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U55"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" customWidth="1"/>
+    <col min="19" max="19" width="22.44140625" customWidth="1"/>
+    <col min="20" max="20" width="16.44140625" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="7">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7">
-        <v>1</v>
-      </c>
-      <c r="I2" s="7">
-        <v>1</v>
-      </c>
-      <c r="J2" s="7">
-        <v>1</v>
-      </c>
-      <c r="K2" s="7">
-        <v>1</v>
-      </c>
-      <c r="L2" s="7">
-        <v>1</v>
-      </c>
-      <c r="M2" s="7">
-        <v>1</v>
-      </c>
-      <c r="N2" s="7">
-        <v>1</v>
-      </c>
-      <c r="O2" s="7">
-        <v>1</v>
-      </c>
-      <c r="P2" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>1</v>
-      </c>
-      <c r="R2" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="D3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1</v>
+      </c>
+      <c r="N3" s="7">
+        <v>1</v>
+      </c>
+      <c r="O3" s="7">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>1</v>
+      </c>
+      <c r="R3" s="7">
+        <v>1</v>
+      </c>
+      <c r="S3" s="7">
+        <v>1</v>
+      </c>
+      <c r="T3" s="7">
+        <v>1</v>
+      </c>
+      <c r="U3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>1</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>1</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0</v>
+      </c>
+      <c r="U4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>1</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>1</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>1</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="3" t="s">
+      <c r="D7" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>1</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
+      <c r="D8" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -1142,37 +1707,48 @@
         <v>0</v>
       </c>
       <c r="O8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="S8" s="7">
+        <v>0</v>
+      </c>
+      <c r="T8" s="7">
+        <v>0</v>
+      </c>
+      <c r="U8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
+      <c r="D9" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="G9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1199,34 +1775,43 @@
         <v>0</v>
       </c>
       <c r="P9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="S9" s="7">
+        <v>1</v>
+      </c>
+      <c r="T9" s="7">
+        <v>1</v>
+      </c>
+      <c r="U9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
+      <c r="D10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="G10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1253,34 +1838,43 @@
         <v>0</v>
       </c>
       <c r="P10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="S10" s="7">
+        <v>1</v>
+      </c>
+      <c r="T10" s="7">
+        <v>1</v>
+      </c>
+      <c r="U10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
+      <c r="D11" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="G11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1307,34 +1901,43 @@
         <v>0</v>
       </c>
       <c r="P11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="S11" s="7">
+        <v>1</v>
+      </c>
+      <c r="T11" s="7">
+        <v>1</v>
+      </c>
+      <c r="U11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
+      <c r="D12" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="G12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1361,34 +1964,43 @@
         <v>0</v>
       </c>
       <c r="P12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="S12" s="7">
+        <v>1</v>
+      </c>
+      <c r="T12" s="7">
+        <v>1</v>
+      </c>
+      <c r="U12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
+      <c r="D13" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="G13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1415,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="7">
         <v>0</v>
@@ -1423,23 +2035,32 @@
       <c r="R13" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="S13" s="7">
+        <v>1</v>
+      </c>
+      <c r="T13" s="7">
+        <v>1</v>
+      </c>
+      <c r="U13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
+      <c r="D14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -1472,30 +2093,37 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="S14" s="7">
+        <v>1</v>
+      </c>
+      <c r="T14" s="7">
+        <v>0</v>
+      </c>
+      <c r="U14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
+      <c r="D15" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -1516,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="7">
         <v>0</v>
@@ -1533,23 +2161,34 @@
       <c r="R15" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="S15" s="7">
+        <v>0</v>
+      </c>
+      <c r="T15" s="7">
+        <v>1</v>
+      </c>
+      <c r="U15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
+      <c r="D16" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -1570,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
         <v>0</v>
@@ -1579,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="7">
         <v>0</v>
@@ -1587,25 +2226,32 @@
       <c r="R16" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="S16" s="7">
+        <v>0</v>
+      </c>
+      <c r="T16" s="7">
+        <v>0</v>
+      </c>
+      <c r="U16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1</v>
+      <c r="D17" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -1635,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="7">
         <v>0</v>
@@ -1643,23 +2289,34 @@
       <c r="R17" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="S17" s="7">
+        <v>0</v>
+      </c>
+      <c r="T17" s="7">
+        <v>0</v>
+      </c>
+      <c r="U17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1</v>
+      <c r="D18" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -1668,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="7">
         <v>0</v>
@@ -1697,23 +2354,32 @@
       <c r="R18" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="S18" s="7">
+        <v>0</v>
+      </c>
+      <c r="T18" s="7">
+        <v>0</v>
+      </c>
+      <c r="U18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>1</v>
+      <c r="D19" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -1722,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="7">
         <v>0</v>
@@ -1751,23 +2417,32 @@
       <c r="R19" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="S19" s="7">
+        <v>0</v>
+      </c>
+      <c r="T19" s="7">
+        <v>0</v>
+      </c>
+      <c r="U19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>1</v>
+      <c r="D20" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -1776,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="7">
         <v>0</v>
@@ -1805,23 +2480,32 @@
       <c r="R20" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="3"/>
+      <c r="S20" s="7">
+        <v>0</v>
+      </c>
+      <c r="T20" s="7">
+        <v>0</v>
+      </c>
+      <c r="U20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="C21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0</v>
+      <c r="D21" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -1830,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="7">
         <v>0</v>
@@ -1848,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="7">
         <v>0</v>
@@ -1859,25 +2543,32 @@
       <c r="R21" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="S21" s="7">
+        <v>0</v>
+      </c>
+      <c r="T21" s="7">
+        <v>0</v>
+      </c>
+      <c r="U21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3"/>
       <c r="C22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
+      <c r="D22" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -1889,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="7">
         <v>0</v>
@@ -1913,25 +2604,36 @@
         <v>0</v>
       </c>
       <c r="R22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="S22" s="7">
+        <v>0</v>
+      </c>
+      <c r="T22" s="7">
+        <v>0</v>
+      </c>
+      <c r="U22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="B23" s="3" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0</v>
+      <c r="D23" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -1943,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="7">
         <v>0</v>
@@ -1952,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
         <v>0</v>
@@ -1969,25 +2671,32 @@
       <c r="R23" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="S23" s="7">
+        <v>0</v>
+      </c>
+      <c r="T23" s="7">
+        <v>0</v>
+      </c>
+      <c r="U23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0</v>
+      <c r="D24" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -2002,13 +2711,13 @@
         <v>0</v>
       </c>
       <c r="K24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="7">
         <v>0</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="7">
         <v>0</v>
@@ -2025,23 +2734,34 @@
       <c r="R24" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+      <c r="S24" s="7">
+        <v>0</v>
+      </c>
+      <c r="T24" s="7">
+        <v>0</v>
+      </c>
+      <c r="U24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="B25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0</v>
+      <c r="D25" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -2056,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="7">
         <v>0</v>
@@ -2065,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="7">
         <v>0</v>
@@ -2079,25 +2799,32 @@
       <c r="R25" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="S25" s="7">
+        <v>0</v>
+      </c>
+      <c r="T25" s="7">
+        <v>0</v>
+      </c>
+      <c r="U25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0</v>
+      <c r="D26" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -2135,23 +2862,34 @@
       <c r="R26" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="7">
+        <v>0</v>
+      </c>
+      <c r="T26" s="7">
+        <v>0</v>
+      </c>
+      <c r="U26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="C27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="7">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0</v>
+      <c r="D27" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -2184,36 +2922,43 @@
         <v>0</v>
       </c>
       <c r="Q27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S27" s="7">
+        <v>0</v>
+      </c>
+      <c r="T27" s="7">
+        <v>0</v>
+      </c>
+      <c r="U27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="3"/>
       <c r="C28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0</v>
+      <c r="D28" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
         <v>0</v>
@@ -2245,29 +2990,40 @@
       <c r="R28" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+      <c r="S28" s="7">
+        <v>0</v>
+      </c>
+      <c r="T28" s="7">
+        <v>0</v>
+      </c>
+      <c r="U28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="B29" s="3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="7">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0</v>
+      <c r="D29" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
         <v>0</v>
@@ -2276,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="7">
         <v>0</v>
@@ -2299,25 +3055,32 @@
       <c r="R29" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>1</v>
-      </c>
+      <c r="S29" s="7">
+        <v>0</v>
+      </c>
+      <c r="T29" s="7">
+        <v>0</v>
+      </c>
+      <c r="U29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
       <c r="B30" s="3" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1</v>
-      </c>
-      <c r="F30" s="7">
-        <v>0</v>
+      <c r="D30" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -2332,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="7">
         <v>0</v>
@@ -2355,29 +3118,40 @@
       <c r="R30" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+      <c r="S30" s="7">
+        <v>0</v>
+      </c>
+      <c r="T30" s="7">
+        <v>0</v>
+      </c>
+      <c r="U30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="B31" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="7">
-        <v>0</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1</v>
-      </c>
-      <c r="F31" s="7">
-        <v>0</v>
+      <c r="D31" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="G31" s="7">
         <v>0</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
         <v>0</v>
@@ -2409,29 +3183,38 @@
       <c r="R31" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+      <c r="S31" s="7">
+        <v>0</v>
+      </c>
+      <c r="T31" s="7">
+        <v>0</v>
+      </c>
+      <c r="U31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="7">
-        <v>0</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1</v>
-      </c>
-      <c r="F32" s="7">
-        <v>0</v>
+      <c r="D32" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="G32" s="7">
         <v>0</v>
       </c>
       <c r="H32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
         <v>0</v>
@@ -2463,29 +3246,38 @@
       <c r="R32" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+      <c r="S32" s="7">
+        <v>0</v>
+      </c>
+      <c r="T32" s="7">
+        <v>0</v>
+      </c>
+      <c r="U32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
       <c r="B33" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="7">
-        <v>0</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1</v>
-      </c>
-      <c r="F33" s="7">
-        <v>0</v>
+      <c r="D33" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="G33" s="7">
         <v>0</v>
       </c>
       <c r="H33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="7">
         <v>0</v>
@@ -2517,29 +3309,38 @@
       <c r="R33" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="S33" s="7">
+        <v>0</v>
+      </c>
+      <c r="T33" s="7">
+        <v>0</v>
+      </c>
+      <c r="U33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
       <c r="B34" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="7">
-        <v>0</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1</v>
-      </c>
-      <c r="F34" s="7">
-        <v>0</v>
+      <c r="D34" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="G34" s="7">
         <v>0</v>
       </c>
       <c r="H34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="7">
         <v>0</v>
@@ -2571,29 +3372,38 @@
       <c r="R34" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
+      <c r="S34" s="7">
+        <v>0</v>
+      </c>
+      <c r="T34" s="7">
+        <v>0</v>
+      </c>
+      <c r="U34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
       <c r="B35" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="7">
-        <v>0</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1</v>
-      </c>
-      <c r="F35" s="7">
-        <v>0</v>
+      <c r="D35" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="G35" s="7">
         <v>0</v>
       </c>
       <c r="H35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="7">
         <v>0</v>
@@ -2625,29 +3435,38 @@
       <c r="R35" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
+      <c r="S35" s="7">
+        <v>0</v>
+      </c>
+      <c r="T35" s="7">
+        <v>0</v>
+      </c>
+      <c r="U35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
       <c r="B36" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="7">
-        <v>0</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1</v>
-      </c>
-      <c r="F36" s="7">
-        <v>0</v>
+      <c r="D36" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="G36" s="7">
         <v>0</v>
       </c>
       <c r="H36" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="7">
         <v>0</v>
@@ -2679,29 +3498,38 @@
       <c r="R36" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
+      <c r="S36" s="7">
+        <v>0</v>
+      </c>
+      <c r="T36" s="7">
+        <v>0</v>
+      </c>
+      <c r="U36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
       <c r="B37" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="7">
-        <v>0</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1</v>
-      </c>
-      <c r="F37" s="7">
-        <v>0</v>
+      <c r="D37" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="G37" s="7">
         <v>0</v>
       </c>
       <c r="H37" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="7">
         <v>0</v>
@@ -2733,29 +3561,38 @@
       <c r="R37" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
+      <c r="S37" s="7">
+        <v>0</v>
+      </c>
+      <c r="T37" s="7">
+        <v>0</v>
+      </c>
+      <c r="U37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
       <c r="B38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="7">
-        <v>0</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1</v>
-      </c>
-      <c r="F38" s="7">
-        <v>0</v>
+      <c r="D38" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="G38" s="7">
         <v>0</v>
       </c>
       <c r="H38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7">
         <v>0</v>
@@ -2787,29 +3624,38 @@
       <c r="R38" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
+      <c r="S38" s="7">
+        <v>0</v>
+      </c>
+      <c r="T38" s="7">
+        <v>0</v>
+      </c>
+      <c r="U38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
       <c r="B39" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="7">
-        <v>0</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1</v>
-      </c>
-      <c r="F39" s="7">
-        <v>0</v>
+      <c r="D39" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="G39" s="7">
         <v>0</v>
       </c>
       <c r="H39" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="7">
         <v>0</v>
@@ -2841,29 +3687,38 @@
       <c r="R39" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+      <c r="S39" s="7">
+        <v>0</v>
+      </c>
+      <c r="T39" s="7">
+        <v>0</v>
+      </c>
+      <c r="U39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
       <c r="B40" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="7">
-        <v>0</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1</v>
-      </c>
-      <c r="F40" s="7">
-        <v>0</v>
+      <c r="D40" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="G40" s="7">
         <v>0</v>
       </c>
       <c r="H40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="7">
         <v>0</v>
@@ -2895,394 +3750,468 @@
       <c r="R40" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="S40" s="7">
+        <v>0</v>
+      </c>
+      <c r="T40" s="7">
+        <v>0</v>
+      </c>
+      <c r="U40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
+      <c r="O41" s="7">
+        <v>0</v>
+      </c>
+      <c r="P41" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>0</v>
+      </c>
+      <c r="R41" s="7">
+        <v>0</v>
+      </c>
+      <c r="S41" s="7">
+        <v>0</v>
+      </c>
+      <c r="T41" s="7">
+        <v>0</v>
+      </c>
+      <c r="U41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B42" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="7">
-        <v>0</v>
-      </c>
-      <c r="E41" s="7">
-        <v>0</v>
-      </c>
-      <c r="F41" s="7">
-        <v>0</v>
-      </c>
-      <c r="G41" s="7">
-        <v>1</v>
-      </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7">
-        <v>0</v>
-      </c>
-      <c r="J41" s="7">
-        <v>0</v>
-      </c>
-      <c r="K41" s="7">
-        <v>0</v>
-      </c>
-      <c r="L41" s="7">
-        <v>0</v>
-      </c>
-      <c r="M41" s="7">
-        <v>0</v>
-      </c>
-      <c r="N41" s="7">
-        <v>0</v>
-      </c>
-      <c r="O41" s="7">
-        <v>0</v>
-      </c>
-      <c r="P41" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="7">
-        <v>0</v>
-      </c>
-      <c r="R41" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7">
+        <v>1</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7">
+        <v>0</v>
+      </c>
+      <c r="P42" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>0</v>
+      </c>
+      <c r="R42" s="7">
+        <v>0</v>
+      </c>
+      <c r="S42" s="7">
+        <v>0</v>
+      </c>
+      <c r="T42" s="7">
+        <v>0</v>
+      </c>
+      <c r="U42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="7">
-        <v>0</v>
-      </c>
-      <c r="E42" s="7">
-        <v>0</v>
-      </c>
-      <c r="F42" s="7">
-        <v>0</v>
-      </c>
-      <c r="G42" s="7">
-        <v>1</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7">
-        <v>0</v>
-      </c>
-      <c r="K42" s="7">
-        <v>0</v>
-      </c>
-      <c r="L42" s="7">
-        <v>0</v>
-      </c>
-      <c r="M42" s="7">
-        <v>0</v>
-      </c>
-      <c r="N42" s="7">
-        <v>0</v>
-      </c>
-      <c r="O42" s="7">
-        <v>0</v>
-      </c>
-      <c r="P42" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="7">
-        <v>0</v>
-      </c>
-      <c r="R42" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
+        <v>1</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7">
+        <v>0</v>
+      </c>
+      <c r="O43" s="7">
+        <v>0</v>
+      </c>
+      <c r="P43" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>0</v>
+      </c>
+      <c r="R43" s="7">
+        <v>0</v>
+      </c>
+      <c r="S43" s="7">
+        <v>0</v>
+      </c>
+      <c r="T43" s="7">
+        <v>0</v>
+      </c>
+      <c r="U43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="7">
-        <v>0</v>
-      </c>
-      <c r="E43" s="7">
-        <v>0</v>
-      </c>
-      <c r="F43" s="7">
-        <v>0</v>
-      </c>
-      <c r="G43" s="7">
-        <v>1</v>
-      </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0</v>
-      </c>
-      <c r="J43" s="7">
-        <v>0</v>
-      </c>
-      <c r="K43" s="7">
-        <v>0</v>
-      </c>
-      <c r="L43" s="7">
-        <v>0</v>
-      </c>
-      <c r="M43" s="7">
-        <v>0</v>
-      </c>
-      <c r="N43" s="7">
-        <v>0</v>
-      </c>
-      <c r="O43" s="7">
-        <v>0</v>
-      </c>
-      <c r="P43" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="7">
-        <v>0</v>
-      </c>
-      <c r="R43" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
+        <v>1</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0</v>
+      </c>
+      <c r="N44" s="7">
+        <v>0</v>
+      </c>
+      <c r="O44" s="7">
+        <v>0</v>
+      </c>
+      <c r="P44" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>0</v>
+      </c>
+      <c r="R44" s="7">
+        <v>0</v>
+      </c>
+      <c r="S44" s="7">
+        <v>0</v>
+      </c>
+      <c r="T44" s="7">
+        <v>0</v>
+      </c>
+      <c r="U44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A45" s="10"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="7">
-        <v>0</v>
-      </c>
-      <c r="E44" s="7">
-        <v>0</v>
-      </c>
-      <c r="F44" s="7">
-        <v>0</v>
-      </c>
-      <c r="G44" s="7">
-        <v>1</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
-        <v>0</v>
-      </c>
-      <c r="J44" s="7">
-        <v>0</v>
-      </c>
-      <c r="K44" s="7">
-        <v>0</v>
-      </c>
-      <c r="L44" s="7">
-        <v>0</v>
-      </c>
-      <c r="M44" s="7">
-        <v>0</v>
-      </c>
-      <c r="N44" s="7">
-        <v>0</v>
-      </c>
-      <c r="O44" s="7">
-        <v>0</v>
-      </c>
-      <c r="P44" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="7">
-        <v>0</v>
-      </c>
-      <c r="R44" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7">
+        <v>1</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7">
+        <v>0</v>
+      </c>
+      <c r="O45" s="7">
+        <v>0</v>
+      </c>
+      <c r="P45" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>0</v>
+      </c>
+      <c r="R45" s="7">
+        <v>0</v>
+      </c>
+      <c r="S45" s="7">
+        <v>0</v>
+      </c>
+      <c r="T45" s="7">
+        <v>0</v>
+      </c>
+      <c r="U45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="7">
-        <v>0</v>
-      </c>
-      <c r="E45" s="7">
-        <v>0</v>
-      </c>
-      <c r="F45" s="7">
-        <v>0</v>
-      </c>
-      <c r="G45" s="7">
-        <v>1</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7">
-        <v>0</v>
-      </c>
-      <c r="K45" s="7">
-        <v>0</v>
-      </c>
-      <c r="L45" s="7">
-        <v>0</v>
-      </c>
-      <c r="M45" s="7">
-        <v>0</v>
-      </c>
-      <c r="N45" s="7">
-        <v>0</v>
-      </c>
-      <c r="O45" s="7">
-        <v>0</v>
-      </c>
-      <c r="P45" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="7">
-        <v>0</v>
-      </c>
-      <c r="R45" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7">
+        <v>1</v>
+      </c>
+      <c r="K46" s="7">
+        <v>0</v>
+      </c>
+      <c r="L46" s="7">
+        <v>0</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0</v>
+      </c>
+      <c r="N46" s="7">
+        <v>0</v>
+      </c>
+      <c r="O46" s="7">
+        <v>0</v>
+      </c>
+      <c r="P46" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>0</v>
+      </c>
+      <c r="R46" s="7">
+        <v>0</v>
+      </c>
+      <c r="S46" s="7">
+        <v>0</v>
+      </c>
+      <c r="T46" s="7">
+        <v>0</v>
+      </c>
+      <c r="U46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="7">
-        <v>0</v>
-      </c>
-      <c r="E46" s="7">
-        <v>0</v>
-      </c>
-      <c r="F46" s="7">
-        <v>0</v>
-      </c>
-      <c r="G46" s="7">
-        <v>1</v>
-      </c>
-      <c r="H46" s="7">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7">
-        <v>0</v>
-      </c>
-      <c r="J46" s="7">
-        <v>0</v>
-      </c>
-      <c r="K46" s="7">
-        <v>0</v>
-      </c>
-      <c r="L46" s="7">
-        <v>0</v>
-      </c>
-      <c r="M46" s="7">
-        <v>0</v>
-      </c>
-      <c r="N46" s="7">
-        <v>0</v>
-      </c>
-      <c r="O46" s="7">
-        <v>0</v>
-      </c>
-      <c r="P46" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="7">
-        <v>0</v>
-      </c>
-      <c r="R46" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="12" t="s">
+      <c r="D47" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7">
+        <v>1</v>
+      </c>
+      <c r="K47" s="7">
+        <v>0</v>
+      </c>
+      <c r="L47" s="7">
+        <v>0</v>
+      </c>
+      <c r="M47" s="7">
+        <v>0</v>
+      </c>
+      <c r="N47" s="7">
+        <v>0</v>
+      </c>
+      <c r="O47" s="7">
+        <v>0</v>
+      </c>
+      <c r="P47" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>0</v>
+      </c>
+      <c r="R47" s="7">
+        <v>0</v>
+      </c>
+      <c r="S47" s="7">
+        <v>0</v>
+      </c>
+      <c r="T47" s="7">
+        <v>0</v>
+      </c>
+      <c r="U47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="7">
-        <v>0</v>
-      </c>
-      <c r="E47" s="7">
-        <v>0</v>
-      </c>
-      <c r="F47" s="7">
-        <v>0</v>
-      </c>
-      <c r="G47" s="7">
-        <v>1</v>
-      </c>
-      <c r="H47" s="7">
-        <v>0</v>
-      </c>
-      <c r="I47" s="7">
-        <v>0</v>
-      </c>
-      <c r="J47" s="7">
-        <v>0</v>
-      </c>
-      <c r="K47" s="7">
-        <v>0</v>
-      </c>
-      <c r="L47" s="7">
-        <v>0</v>
-      </c>
-      <c r="M47" s="7">
-        <v>0</v>
-      </c>
-      <c r="N47" s="7">
-        <v>0</v>
-      </c>
-      <c r="O47" s="7">
-        <v>0</v>
-      </c>
-      <c r="P47" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="7">
-        <v>0</v>
-      </c>
-      <c r="R47" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="7">
-        <v>0</v>
-      </c>
-      <c r="E48" s="7">
-        <v>0</v>
-      </c>
-      <c r="F48" s="7">
-        <v>0</v>
+      <c r="D48" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G48" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -3291,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="7">
         <v>0</v>
@@ -3317,236 +4246,279 @@
       <c r="R48" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="13"/>
+      <c r="S48" s="7">
+        <v>0</v>
+      </c>
+      <c r="T48" s="7">
+        <v>0</v>
+      </c>
+      <c r="U48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A49" s="10"/>
+      <c r="B49" s="15"/>
       <c r="C49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7">
+        <v>1</v>
+      </c>
+      <c r="K49" s="7">
+        <v>0</v>
+      </c>
+      <c r="L49" s="7">
+        <v>0</v>
+      </c>
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7">
+        <v>0</v>
+      </c>
+      <c r="P49" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>0</v>
+      </c>
+      <c r="R49" s="7">
+        <v>0</v>
+      </c>
+      <c r="S49" s="7">
+        <v>0</v>
+      </c>
+      <c r="T49" s="7">
+        <v>0</v>
+      </c>
+      <c r="U49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A50" s="10"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="7">
-        <v>0</v>
-      </c>
-      <c r="E49" s="7">
-        <v>0</v>
-      </c>
-      <c r="F49" s="7">
-        <v>0</v>
-      </c>
-      <c r="G49" s="7">
-        <v>1</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0</v>
-      </c>
-      <c r="J49" s="7">
-        <v>0</v>
-      </c>
-      <c r="K49" s="7">
-        <v>0</v>
-      </c>
-      <c r="L49" s="7">
-        <v>0</v>
-      </c>
-      <c r="M49" s="7">
-        <v>0</v>
-      </c>
-      <c r="N49" s="7">
-        <v>0</v>
-      </c>
-      <c r="O49" s="7">
-        <v>0</v>
-      </c>
-      <c r="P49" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="7">
-        <v>0</v>
-      </c>
-      <c r="R49" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7">
+        <v>1</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7">
+        <v>0</v>
+      </c>
+      <c r="P50" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>0</v>
+      </c>
+      <c r="R50" s="7">
+        <v>0</v>
+      </c>
+      <c r="S50" s="7">
+        <v>0</v>
+      </c>
+      <c r="T50" s="7">
+        <v>0</v>
+      </c>
+      <c r="U50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="7">
-        <v>0</v>
-      </c>
-      <c r="E50" s="7">
-        <v>0</v>
-      </c>
-      <c r="F50" s="7">
-        <v>0</v>
-      </c>
-      <c r="G50" s="7">
-        <v>1</v>
-      </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7">
-        <v>0</v>
-      </c>
-      <c r="K50" s="7">
-        <v>0</v>
-      </c>
-      <c r="L50" s="7">
-        <v>0</v>
-      </c>
-      <c r="M50" s="7">
-        <v>0</v>
-      </c>
-      <c r="N50" s="7">
-        <v>0</v>
-      </c>
-      <c r="O50" s="7">
-        <v>0</v>
-      </c>
-      <c r="P50" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="7">
-        <v>0</v>
-      </c>
-      <c r="R50" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7">
+        <v>1</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0</v>
+      </c>
+      <c r="M51" s="7">
+        <v>0</v>
+      </c>
+      <c r="N51" s="7">
+        <v>0</v>
+      </c>
+      <c r="O51" s="7">
+        <v>0</v>
+      </c>
+      <c r="P51" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>0</v>
+      </c>
+      <c r="R51" s="7">
+        <v>0</v>
+      </c>
+      <c r="S51" s="7">
+        <v>0</v>
+      </c>
+      <c r="T51" s="7">
+        <v>0</v>
+      </c>
+      <c r="U51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A52" s="10"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="7">
-        <v>0</v>
-      </c>
-      <c r="E51" s="7">
-        <v>0</v>
-      </c>
-      <c r="F51" s="7">
-        <v>0</v>
-      </c>
-      <c r="G51" s="7">
-        <v>1</v>
-      </c>
-      <c r="H51" s="7">
-        <v>0</v>
-      </c>
-      <c r="I51" s="7">
-        <v>0</v>
-      </c>
-      <c r="J51" s="7">
-        <v>0</v>
-      </c>
-      <c r="K51" s="7">
-        <v>0</v>
-      </c>
-      <c r="L51" s="7">
-        <v>0</v>
-      </c>
-      <c r="M51" s="7">
-        <v>0</v>
-      </c>
-      <c r="N51" s="7">
-        <v>0</v>
-      </c>
-      <c r="O51" s="7">
-        <v>0</v>
-      </c>
-      <c r="P51" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="7">
-        <v>0</v>
-      </c>
-      <c r="R51" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="3" t="s">
+      <c r="D52" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7">
+        <v>1</v>
+      </c>
+      <c r="K52" s="7">
+        <v>0</v>
+      </c>
+      <c r="L52" s="7">
+        <v>0</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7">
+        <v>0</v>
+      </c>
+      <c r="P52" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>0</v>
+      </c>
+      <c r="R52" s="7">
+        <v>0</v>
+      </c>
+      <c r="S52" s="7">
+        <v>0</v>
+      </c>
+      <c r="T52" s="7">
+        <v>0</v>
+      </c>
+      <c r="U52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A53" s="10"/>
+      <c r="B53" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="7">
-        <v>0</v>
-      </c>
-      <c r="E52" s="7">
-        <v>0</v>
-      </c>
-      <c r="F52" s="7">
-        <v>0</v>
-      </c>
-      <c r="G52" s="7">
-        <v>1</v>
-      </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7">
-        <v>0</v>
-      </c>
-      <c r="J52" s="7">
-        <v>0</v>
-      </c>
-      <c r="K52" s="7">
-        <v>0</v>
-      </c>
-      <c r="L52" s="7">
-        <v>0</v>
-      </c>
-      <c r="M52" s="7">
-        <v>0</v>
-      </c>
-      <c r="N52" s="7">
-        <v>0</v>
-      </c>
-      <c r="O52" s="7">
-        <v>0</v>
-      </c>
-      <c r="P52" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="7">
-        <v>0</v>
-      </c>
-      <c r="R52" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="7">
-        <v>0</v>
-      </c>
-      <c r="E53" s="7">
-        <v>0</v>
-      </c>
-      <c r="F53" s="7">
-        <v>0</v>
+      <c r="D53" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="G53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -3555,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="7">
         <v>0</v>
@@ -3581,77 +4553,158 @@
       <c r="R53" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="S53" s="7">
+        <v>0</v>
+      </c>
+      <c r="T53" s="7">
+        <v>0</v>
+      </c>
+      <c r="U53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A54" s="10"/>
+      <c r="B54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7">
+        <v>1</v>
+      </c>
+      <c r="K54" s="7">
+        <v>0</v>
+      </c>
+      <c r="L54" s="7">
+        <v>0</v>
+      </c>
+      <c r="M54" s="7">
+        <v>0</v>
+      </c>
+      <c r="N54" s="7">
+        <v>0</v>
+      </c>
+      <c r="O54" s="7">
+        <v>0</v>
+      </c>
+      <c r="P54" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>0</v>
+      </c>
+      <c r="R54" s="7">
+        <v>0</v>
+      </c>
+      <c r="S54" s="7">
+        <v>0</v>
+      </c>
+      <c r="T54" s="7">
+        <v>0</v>
+      </c>
+      <c r="U54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B55" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="7">
-        <v>0</v>
-      </c>
-      <c r="E54" s="7">
-        <v>0</v>
-      </c>
-      <c r="F54" s="7">
-        <v>0</v>
-      </c>
-      <c r="G54" s="7">
-        <v>0</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
-      <c r="I54" s="7">
-        <v>1</v>
-      </c>
-      <c r="J54" s="7">
-        <v>0</v>
-      </c>
-      <c r="K54" s="7">
-        <v>0</v>
-      </c>
-      <c r="L54" s="7">
-        <v>0</v>
-      </c>
-      <c r="M54" s="7">
-        <v>0</v>
-      </c>
-      <c r="N54" s="7">
-        <v>0</v>
-      </c>
-      <c r="O54" s="7">
-        <v>0</v>
-      </c>
-      <c r="P54" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="7">
-        <v>0</v>
-      </c>
-      <c r="R54" s="7">
+      <c r="D55" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="7">
+        <v>0</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7">
+        <v>0</v>
+      </c>
+      <c r="K55" s="7">
+        <v>0</v>
+      </c>
+      <c r="L55" s="7">
+        <v>1</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0</v>
+      </c>
+      <c r="N55" s="7">
+        <v>0</v>
+      </c>
+      <c r="O55" s="7">
+        <v>0</v>
+      </c>
+      <c r="P55" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>0</v>
+      </c>
+      <c r="R55" s="7">
+        <v>0</v>
+      </c>
+      <c r="S55" s="7">
+        <v>0</v>
+      </c>
+      <c r="T55" s="7">
+        <v>0</v>
+      </c>
+      <c r="U55" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A41:A53"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A40"/>
+    <mergeCell ref="A42:A54"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
